--- a/src/main/java/com/lco/qa/testdata/Minimal Questions.xlsx
+++ b/src/main/java/com/lco/qa/testdata/Minimal Questions.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -786,7 +786,9 @@
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="n">
+        <v>753475837</v>
+      </c>
       <c r="D15" s="4" t="n">
         <v>753475837</v>
       </c>
